--- a/Excel/Crops.xlsx
+++ b/Excel/Crops.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,9 @@
     <t>物件类型</t>
   </si>
   <si>
+    <t>作物种类</t>
+  </si>
+  <si>
     <t>成长时间</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>farm_type</t>
   </si>
   <si>
+    <t>crop_type</t>
+  </si>
+  <si>
     <t>time_min</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t>生菜_幼苗</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>胡萝卜_幼苗</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -193,12 +205,12 @@
     <t>番茄_幼苗</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>200402</t>
   </si>
   <si>
@@ -238,12 +250,12 @@
     <t>土豆_幼苗</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>200602</t>
   </si>
   <si>
@@ -262,6 +274,9 @@
     <t>草莓_幼苗</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
@@ -283,12 +298,12 @@
     <t>南瓜_幼苗</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>360</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>200802</t>
   </si>
   <si>
@@ -305,6 +320,9 @@
   </si>
   <si>
     <t>葡萄_幼苗</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>480</t>
@@ -1274,24 +1292,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="18.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="16378" width="9" style="1"/>
-    <col min="16381" max="16384" width="9" style="1"/>
+    <col min="4" max="8" width="18.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="16379" width="9" style="1"/>
+    <col min="16382" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:8">
+    <row r="1" ht="26" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,616 +1334,699 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="3:4">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="3:5">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="3:4">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="3:5">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="3:4">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="3:5">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="3:4">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="3:5">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="3:4">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="3:5">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="3:4">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="3:5">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="3:4">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="3:5">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="3:4">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="3:5">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="3:4">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="3:5">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="3:4">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="3:5">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="3:4">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="3:5">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Crops.xlsx
+++ b/Excel/Crops.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -79,6 +79,9 @@
     <t>成长时间</t>
   </si>
   <si>
+    <t>收获物品</t>
+  </si>
+  <si>
     <t>等级需求</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>time_min</t>
   </si>
   <si>
+    <t>harvest_item_id</t>
+  </si>
+  <si>
     <t>level_need</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>900101</t>
+  </si>
+  <si>
     <t>200201</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>生菜_成熟</t>
   </si>
   <si>
+    <t>900102</t>
+  </si>
+  <si>
     <t>200301</t>
   </si>
   <si>
@@ -196,6 +208,9 @@
     <t>胡萝卜_成熟</t>
   </si>
   <si>
+    <t>900103</t>
+  </si>
+  <si>
     <t>200401</t>
   </si>
   <si>
@@ -220,6 +235,9 @@
     <t>番茄_成熟</t>
   </si>
   <si>
+    <t>900104</t>
+  </si>
+  <si>
     <t>200501</t>
   </si>
   <si>
@@ -241,6 +259,9 @@
     <t>玉米_成熟</t>
   </si>
   <si>
+    <t>900105</t>
+  </si>
+  <si>
     <t>200601</t>
   </si>
   <si>
@@ -265,6 +286,9 @@
     <t>土豆_成熟</t>
   </si>
   <si>
+    <t>900106</t>
+  </si>
+  <si>
     <t>200701</t>
   </si>
   <si>
@@ -289,6 +313,9 @@
     <t>草莓_成熟</t>
   </si>
   <si>
+    <t>900107</t>
+  </si>
+  <si>
     <t>200801</t>
   </si>
   <si>
@@ -313,6 +340,9 @@
     <t>南瓜_成熟</t>
   </si>
   <si>
+    <t>900108</t>
+  </si>
+  <si>
     <t>200901</t>
   </si>
   <si>
@@ -335,6 +365,9 @@
   </si>
   <si>
     <t>葡萄_成熟</t>
+  </si>
+  <si>
+    <t>900109</t>
   </si>
 </sst>
 </file>
@@ -500,12 +533,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1292,10 +1325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1303,13 +1336,13 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="18.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="16379" width="9" style="1"/>
-    <col min="16382" max="16384" width="9" style="1"/>
+    <col min="4" max="9" width="18.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="16380" width="9" style="1"/>
+    <col min="16383" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:9">
+    <row r="1" ht="26" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,585 +1370,621 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="3:5">

--- a/Excel/Crops.xlsx
+++ b/Excel/Crops.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +88,9 @@
     <t>每格容量</t>
   </si>
   <si>
+    <t>按钮Icon</t>
+  </si>
+  <si>
     <t>贴图</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>grid_capacity</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>png</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t>5</t>
   </si>
   <si>
+    <t>Icon_01</t>
+  </si>
+  <si>
     <t>200102</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>Icon_04</t>
+  </si>
+  <si>
     <t>200202</t>
   </si>
   <si>
@@ -199,6 +211,9 @@
     <t>15</t>
   </si>
   <si>
+    <t>Icon_02</t>
+  </si>
+  <si>
     <t>200302</t>
   </si>
   <si>
@@ -356,6 +371,9 @@
   </si>
   <si>
     <t>480</t>
+  </si>
+  <si>
+    <t>Icon_03</t>
   </si>
   <si>
     <t>200902</t>
@@ -533,12 +551,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1325,10 +1343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1336,13 +1354,13 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="18.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="16380" width="9" style="1"/>
-    <col min="16383" max="16384" width="9" style="1"/>
+    <col min="4" max="10" width="18.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="16381" width="9" style="1"/>
+    <col min="16384" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:10">
+    <row r="1" ht="26" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,618 +1391,639 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="G13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="3:5">

--- a/Excel/Crops.xlsx
+++ b/Excel/Crops.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="18000" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -59,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -145,150 +132,141 @@
     <t>1</t>
   </si>
   <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Icon_01</t>
+  </si>
+  <si>
+    <t>Crops_1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>Cropswheat_02</t>
+  </si>
+  <si>
+    <t>小麦_成熟</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>Crops_1012</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>CropsLettuce_01</t>
+  </si>
+  <si>
+    <t>生菜_幼苗</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Icon_04</t>
+  </si>
+  <si>
+    <t>Crops_1021</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>CropsLettuce_02</t>
+  </si>
+  <si>
+    <t>生菜_成熟</t>
+  </si>
+  <si>
+    <t>100102</t>
+  </si>
+  <si>
+    <t>Crops_1022</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>CropsCarrot_01</t>
+  </si>
+  <si>
+    <t>胡萝卜_幼苗</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Icon_02</t>
+  </si>
+  <si>
+    <t>Crops_1031</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>CropsCarrot_02</t>
+  </si>
+  <si>
+    <t>胡萝卜_成熟</t>
+  </si>
+  <si>
+    <t>100103</t>
+  </si>
+  <si>
+    <t>Crops_1032</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>CropsTomato_01</t>
+  </si>
+  <si>
+    <t>番茄_幼苗</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Crops_1041</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>CropsTomato_02</t>
+  </si>
+  <si>
+    <t>番茄_成熟</t>
+  </si>
+  <si>
+    <t>100104</t>
+  </si>
+  <si>
+    <t>Crops_1042</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>CropsCorn_01</t>
+  </si>
+  <si>
+    <t>玉米_幼苗</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Icon_01</t>
-  </si>
-  <si>
-    <t>Crops_1011</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>Cropswheat_02</t>
-  </si>
-  <si>
-    <t>小麦_成熟</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>100101</t>
-  </si>
-  <si>
-    <t>Crops_1012</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>CropsLettuce_01</t>
-  </si>
-  <si>
-    <t>生菜_幼苗</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Icon_04</t>
-  </si>
-  <si>
-    <t>Crops_1021</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>CropsLettuce_02</t>
-  </si>
-  <si>
-    <t>生菜_成熟</t>
-  </si>
-  <si>
-    <t>100102</t>
-  </si>
-  <si>
-    <t>Crops_1022</t>
-  </si>
-  <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>CropsCarrot_01</t>
-  </si>
-  <si>
-    <t>胡萝卜_幼苗</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Icon_02</t>
-  </si>
-  <si>
-    <t>Crops_1031</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>CropsCarrot_02</t>
-  </si>
-  <si>
-    <t>胡萝卜_成熟</t>
-  </si>
-  <si>
-    <t>100103</t>
-  </si>
-  <si>
-    <t>Crops_1032</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>CropsTomato_01</t>
-  </si>
-  <si>
-    <t>番茄_幼苗</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Crops_1041</t>
-  </si>
-  <si>
-    <t>1042</t>
-  </si>
-  <si>
-    <t>CropsTomato_02</t>
-  </si>
-  <si>
-    <t>番茄_成熟</t>
-  </si>
-  <si>
-    <t>100104</t>
-  </si>
-  <si>
-    <t>Crops_1042</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>CropsCorn_01</t>
-  </si>
-  <si>
-    <t>玉米_幼苗</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>Crops_1051</t>
   </si>
   <si>
@@ -319,9 +297,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>Crops_1061</t>
   </si>
   <si>
@@ -352,9 +327,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>Crops_1071</t>
   </si>
   <si>
@@ -385,9 +357,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>360</t>
-  </si>
-  <si>
     <t>Crops_1081</t>
   </si>
   <si>
@@ -416,9 +385,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>480</t>
   </si>
   <si>
     <t>Icon_03</t>
@@ -445,17 +411,93 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -469,6 +511,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -477,134 +578,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -625,25 +598,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,25 +742,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,127 +766,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,6 +789,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -834,11 +842,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,36 +881,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -905,170 +889,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,52 +1057,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1399,11 +1375,11 @@
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
@@ -1429,13 +1405,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1484,19 +1460,19 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1514,7 +1490,7 @@
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1522,16 +1498,16 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1546,7 +1522,7 @@
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1554,16 +1530,16 @@
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1578,7 +1554,7 @@
       <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1586,119 +1562,119 @@
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="K8" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:11">
       <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>52</v>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>27</v>
@@ -1706,377 +1682,377 @@
       <c r="I9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>60</v>
+      <c r="K9" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:11">
       <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>71</v>
+      <c r="K11" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:11">
       <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>81</v>
+      <c r="K13" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:11">
       <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>85</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>92</v>
+      <c r="K15" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:11">
       <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>96</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>103</v>
+      <c r="K17" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>109</v>
+      <c r="K18" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>114</v>
+      <c r="K19" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>126</v>
+      <c r="K21" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
